--- a/resources/table.xlsx
+++ b/resources/table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Номер тел.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учетное имя</t>
   </si>
   <si>
     <t xml:space="preserve">Адрес</t>
@@ -207,23 +204,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -240,7 +237,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
@@ -253,7 +250,6 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -287,13 +283,11 @@
       <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="AMJ4" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
